--- a/output/Annual Data.xlsx
+++ b/output/Annual Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -26,13 +26,7 @@
     <t xml:space="preserve">mortgage_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">observation_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pce_index_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
+    <t xml:space="preserve">pce_index_2025</t>
   </si>
   <si>
     <t xml:space="preserve">deflator</t>
@@ -62,142 +56,142 @@
     <t xml:space="preserve">hover_text</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1979&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 65.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1687.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.40&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 11.2%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1398&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1980&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 76.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1642.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.78&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 13.74%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1590&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1981&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 89.8&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1607.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 16.64%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1867&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1982&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 81.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1505.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.93&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 16.04%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1699&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1983&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 70.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1569.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 13.24%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1469&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1984&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 75&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1595.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.83&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 13.88%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1563&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1985&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 67.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1591.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.15&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 12.43%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1430&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1986&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 59.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1658.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.43&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.19%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1268&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1987&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 65.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1833.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.36&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.21%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1399&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1988&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 68&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1881.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.40&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.34%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1454&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1989&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 70.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1943.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.35&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.32%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1496&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1990&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 68.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1932.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.95&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.13%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1437&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1991&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 61.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1872&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.49&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 9.25%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1262&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1992&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 55.4&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1820.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.69&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 8.39%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1147&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1993&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 50.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1826.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.92&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.31%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1049&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1994&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 56.4&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1854&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 8.38%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1172&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1995&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 54&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1853&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.83&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.93%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1125&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1996&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 54.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1899.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.96&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.81%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1147&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1997&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 53.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1897.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.31&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.6%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1142&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1998&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 50.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1915.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.84&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.94%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1107&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1999&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 53.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1931.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $22.53&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.44%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1210&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2000&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 57.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1948.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $22.96&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 8.05%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1319&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2001&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 51.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1929&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.52&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.97%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1204&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2002&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 51.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2014.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.81&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.54%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1217&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2003&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 47.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2035.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.94&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.83%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1148&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2004&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 54.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2300.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.59&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.84%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1279&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2005&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 58.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2456.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.44&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.87%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1362&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2006&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 61.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2446.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.69&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.41%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1451&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2007&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 59.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2397.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.76&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.34%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1416&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2008&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 52.8&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2194&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.86&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.03%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1260&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2009&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 43.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2009.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.25&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.04%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1051&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2010&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 43.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2079.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.85&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.69%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1028&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2011&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 42.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2099.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.48&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.45%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $994&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2012&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 41.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2243.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.45&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.66%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $964&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2013&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 45.8&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2404.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.49&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.98%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1076&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2014&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 49.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2551.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.41&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.17%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1164&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2015&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 47.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2535.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.95&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.85%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1139&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2016&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 46.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2540.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.40&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.65%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1135&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2017&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 49.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2608.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.72&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.99%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1230&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2018&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 52.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2586.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.68&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.54%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1300&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2019&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 46.4&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2448.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $25.26&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.94%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1172&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2020&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 39.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2289.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $27.31&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.11%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1069&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2021&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 44.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2630.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $26.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 2.96%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1182&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2022&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 63.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2846.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $26.56&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.34%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1687&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2023&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 69.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2668.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $26.81&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.81%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1867&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2024&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 64.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2483.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $27.52&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.72%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1767&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1979&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 81.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2099.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.40&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 11.2%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1739&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1980&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 95.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2043.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.78&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 13.74%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1978&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1981&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 111.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2000.1&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 16.64%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $2323&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1982&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 101&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1872.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.93&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 16.04%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $2114&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1983&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 87.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1952.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 13.24%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1827&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1984&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 93.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1985&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.83&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 13.88%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1944&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1985&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 84.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 1980.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.15&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 12.43%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1779&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1986&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 73.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2062.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.43&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.19%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1577&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1987&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 81.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2281.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.36&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.21%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1741&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1988&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 84.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2340.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.40&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.34%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1809&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1989&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 87.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2417.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.35&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.32%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1861&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1990&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 85.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2404.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.95&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 10.13%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1788&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1991&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 76.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2328.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.49&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 9.25%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1570&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1992&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 69&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2265&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.69&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 8.39%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1426&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1993&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 62.4&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2272.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.92&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.31%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1305&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1994&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 70.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2306.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 8.38%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1458&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1995&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 67.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2305.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.83&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.93%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1400&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1996&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 68.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2362.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $20.96&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.81%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1427&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1997&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 66.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2361.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.31&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.6%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1421&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1998&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 63&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2383.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $21.84&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.94%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1377&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 1999&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 66.8&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2403.2&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $22.53&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 7.44%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1505&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2000&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 71.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2424&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $22.96&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 8.05%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1641&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2001&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 63.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2399.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.52&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.97%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1497&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2002&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 63.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2505.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.81&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.54%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1514&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2003&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 59.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2532.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.94&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.83%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1428&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2004&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 67.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2861.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.59&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.84%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1591&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2005&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 72.3&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3056.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.44&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.87%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1694&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2006&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 76.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3043.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.69&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.41%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1806&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2007&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 74.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2982.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.76&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.34%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1762&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2008&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 65.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2729.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.86&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.03%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1567&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2009&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 53.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2499.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.25&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.04%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1308&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2010&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 53.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2587.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.85&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.69%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1279&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2011&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 52.6&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2612.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.48&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.45%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1236&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2012&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 51.1&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2791.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.45&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.66%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1199&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2013&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 57&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2991.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.49&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.98%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1338&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2014&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 61.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3174.1&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.41&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.17%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1448&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2015&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 59.2&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3154.3&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $23.95&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.85%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1417&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2016&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 57.8&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3160.9&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.40&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.65%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1411&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2017&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 61.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3244.7&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.72&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.99%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1530&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2018&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 65.5&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3218.1&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $24.68&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 4.54%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1617&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2019&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 57.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3045.8&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $25.26&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.94%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1459&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2020&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 48.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 2848.6&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $27.31&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 3.11%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1331&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2021&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 54.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3272.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $26.79&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 2.96%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $1471&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2022&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 79&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3541.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $26.56&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 5.34%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $2099&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2023&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 86.7&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3319.5&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $26.81&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.81%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $2323&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2024&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; 79.9&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; 3089.4&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $27.52&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; 6.72%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $2199&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Year:&lt;/b&gt; 2025&lt;br&gt;&lt;b&gt;Monthly Hours Needed:&lt;/b&gt; NaN&lt;br&gt;&lt;b&gt;Hours Needed for Down Payment:&lt;/b&gt; NaN&lt;br&gt;&lt;b&gt;Hourly Wage:&lt;/b&gt; $28.02&lt;br&gt;&lt;b&gt;Mortgage Rate:&lt;/b&gt; NaN%&lt;br&gt;&lt;b&gt;Monthly Income at Required:&lt;/b&gt; $NaN&lt;br&gt;</t>
@@ -207,21 +201,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,10 +231,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,12 +569,6 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,41 +583,35 @@
       <c r="D2" t="n">
         <v>11.2</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>28856</v>
+      <c r="E2" t="n">
+        <v>27.9266158333333</v>
       </c>
       <c r="F2" t="n">
-        <v>34.743</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>28856</v>
+        <v>3.58081339310149</v>
+      </c>
+      <c r="G2" t="n">
+        <v>224696.040417118</v>
       </c>
       <c r="H2" t="n">
-        <v>2.87827763866103</v>
+        <v>44939.2080834236</v>
       </c>
       <c r="I2" t="n">
-        <v>180611.921825979</v>
+        <v>179756.832333695</v>
       </c>
       <c r="J2" t="n">
-        <v>36122.3843651959</v>
+        <v>1739.08677630307</v>
       </c>
       <c r="K2" t="n">
-        <v>144489.537460783</v>
+        <v>81.2528357657912</v>
       </c>
       <c r="L2" t="n">
-        <v>1397.88758318642</v>
+        <v>1739.08677630307</v>
       </c>
       <c r="M2" t="n">
-        <v>65.3114794289548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1397.88758318642</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1687.69391170539</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
+        <v>2099.62961227807</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -654,41 +627,35 @@
       <c r="D3" t="n">
         <v>13.74</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>29221</v>
+      <c r="E3" t="n">
+        <v>30.4931925</v>
       </c>
       <c r="F3" t="n">
-        <v>37.936</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>29221</v>
+        <v>3.27942048048921</v>
+      </c>
+      <c r="G3" t="n">
+        <v>212342.476111676</v>
       </c>
       <c r="H3" t="n">
-        <v>2.63601855757065</v>
+        <v>42468.4952223353</v>
       </c>
       <c r="I3" t="n">
-        <v>170682.201602699</v>
+        <v>169873.980889341</v>
       </c>
       <c r="J3" t="n">
-        <v>34136.4403205399</v>
+        <v>1977.88245913773</v>
       </c>
       <c r="K3" t="n">
-        <v>136545.761282159</v>
+        <v>95.1908757092063</v>
       </c>
       <c r="L3" t="n">
-        <v>1589.83420942799</v>
+        <v>1977.88245913773</v>
       </c>
       <c r="M3" t="n">
-        <v>76.5150173250844</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1589.83420942799</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1642.9073591784</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
+        <v>2043.90975388332</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -704,41 +671,35 @@
       <c r="D4" t="n">
         <v>16.64</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>29587</v>
+      <c r="E4" t="n">
+        <v>33.165135</v>
       </c>
       <c r="F4" t="n">
-        <v>41.26</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>29587</v>
+        <v>3.01521462222301</v>
+      </c>
+      <c r="G4" t="n">
+        <v>207899.048202276</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42365487154629</v>
+        <v>41579.8096404553</v>
       </c>
       <c r="I4" t="n">
-        <v>167111.003393117</v>
+        <v>166319.238561821</v>
       </c>
       <c r="J4" t="n">
-        <v>33422.2006786234</v>
+        <v>2322.61921939911</v>
       </c>
       <c r="K4" t="n">
-        <v>133688.802714493</v>
+        <v>111.726795235383</v>
       </c>
       <c r="L4" t="n">
-        <v>1866.94086197203</v>
+        <v>2322.61921939911</v>
       </c>
       <c r="M4" t="n">
-        <v>89.8069376417556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1866.94086197203</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1607.73463869919</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
+        <v>2000.14657539397</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -754,41 +715,35 @@
       <c r="D5" t="n">
         <v>16.04</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>29952</v>
+      <c r="E5" t="n">
+        <v>35.3206958333333</v>
       </c>
       <c r="F5" t="n">
-        <v>43.941</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>29952</v>
+        <v>2.83120130112574</v>
+      </c>
+      <c r="G5" t="n">
+        <v>195989.91007043</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2757788853235</v>
+        <v>39197.9820140859</v>
       </c>
       <c r="I5" t="n">
-        <v>157540.793336519</v>
+        <v>156791.928056344</v>
       </c>
       <c r="J5" t="n">
-        <v>31508.1586673039</v>
+        <v>2113.52842874527</v>
       </c>
       <c r="K5" t="n">
-        <v>126032.634669216</v>
+        <v>100.987243366701</v>
       </c>
       <c r="L5" t="n">
-        <v>1698.89840392377</v>
+        <v>2113.52842874527</v>
       </c>
       <c r="M5" t="n">
-        <v>81.1756606814146</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1698.89840392377</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1505.50238364224</v>
-      </c>
-      <c r="P5" t="s">
-        <v>19</v>
+        <v>1872.93253088158</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -804,41 +759,35 @@
       <c r="D6" t="n">
         <v>13.24</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>30317</v>
+      <c r="E6" t="n">
+        <v>37.12874</v>
       </c>
       <c r="F6" t="n">
-        <v>46.191</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>30317</v>
+        <v>2.69333136540588</v>
+      </c>
+      <c r="G6" t="n">
+        <v>203009.851667468</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16492390292481</v>
+        <v>40601.9703334937</v>
       </c>
       <c r="I6" t="n">
-        <v>163181.139182958</v>
+        <v>162407.881333975</v>
       </c>
       <c r="J6" t="n">
-        <v>32636.2278365915</v>
+        <v>1827.07129224305</v>
       </c>
       <c r="K6" t="n">
-        <v>130544.911346366</v>
+        <v>87.8733570590042</v>
       </c>
       <c r="L6" t="n">
-        <v>1468.616288263</v>
+        <v>1827.07129224305</v>
       </c>
       <c r="M6" t="n">
-        <v>70.6333923745087</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1468.616288263</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1569.64586654034</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
+        <v>1952.7598356789</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -854,41 +803,35 @@
       <c r="D7" t="n">
         <v>13.88</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>30682</v>
+      <c r="E7" t="n">
+        <v>38.6683091666667</v>
       </c>
       <c r="F7" t="n">
-        <v>48.106</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>30682</v>
+        <v>2.58609704316224</v>
+      </c>
+      <c r="G7" t="n">
+        <v>206758.458600821</v>
       </c>
       <c r="H7" t="n">
-        <v>2.07874277636885</v>
+        <v>41351.6917201642</v>
       </c>
       <c r="I7" t="n">
-        <v>166195.48497069</v>
+        <v>165406.766880657</v>
       </c>
       <c r="J7" t="n">
-        <v>33239.0969941379</v>
+        <v>1944.15831432797</v>
       </c>
       <c r="K7" t="n">
-        <v>132956.387976552</v>
+        <v>93.3245998866734</v>
       </c>
       <c r="L7" t="n">
-        <v>1562.74300019497</v>
+        <v>1944.15831432797</v>
       </c>
       <c r="M7" t="n">
-        <v>75.0156837249689</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1562.74300019497</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1595.56215392085</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
+        <v>1984.98756813195</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -904,41 +847,35 @@
       <c r="D8" t="n">
         <v>12.43</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>31048</v>
+      <c r="E8" t="n">
+        <v>40.2388933333333</v>
       </c>
       <c r="F8" t="n">
-        <v>50.06</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>31048</v>
+        <v>2.48515780917765</v>
+      </c>
+      <c r="G8" t="n">
+        <v>209436.674368447</v>
       </c>
       <c r="H8" t="n">
-        <v>1.99760287654814</v>
+        <v>41887.3348736894</v>
       </c>
       <c r="I8" t="n">
-        <v>168347.982421095</v>
+        <v>167549.339494757</v>
       </c>
       <c r="J8" t="n">
-        <v>33669.5964842189</v>
+        <v>1779.08743528802</v>
       </c>
       <c r="K8" t="n">
-        <v>134678.385936876</v>
+        <v>84.113962023777</v>
       </c>
       <c r="L8" t="n">
-        <v>1430.05412583356</v>
+        <v>1779.08743528802</v>
       </c>
       <c r="M8" t="n">
-        <v>67.6119206096447</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1430.05412583356</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1591.87407198511</v>
-      </c>
-      <c r="P8" t="s">
-        <v>22</v>
+        <v>1980.40277557935</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -954,41 +891,35 @@
       <c r="D9" t="n">
         <v>10.19</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>31413</v>
+      <c r="E9" t="n">
+        <v>41.6274141666667</v>
       </c>
       <c r="F9" t="n">
-        <v>51.787</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>31413</v>
+        <v>2.40226307595333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>221068.259564605</v>
       </c>
       <c r="H9" t="n">
-        <v>1.93098654102381</v>
+        <v>44213.6519129211</v>
       </c>
       <c r="I9" t="n">
-        <v>177699.036437716</v>
+        <v>176854.607651684</v>
       </c>
       <c r="J9" t="n">
-        <v>35539.8072875432</v>
+        <v>1576.91372252683</v>
       </c>
       <c r="K9" t="n">
-        <v>142159.229150173</v>
+        <v>73.5741517312243</v>
       </c>
       <c r="L9" t="n">
-        <v>1267.55441776362</v>
+        <v>1576.91372252683</v>
       </c>
       <c r="M9" t="n">
-        <v>59.1403573498533</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1267.55441776362</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1658.18277596204</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
+        <v>2062.8788296802</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1004,41 +935,35 @@
       <c r="D10" t="n">
         <v>10.21</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>31778</v>
+      <c r="E10" t="n">
+        <v>42.9717241666667</v>
       </c>
       <c r="F10" t="n">
-        <v>53.46</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>31778</v>
+        <v>2.32711165165605</v>
+      </c>
+      <c r="G10" t="n">
+        <v>243648.589928389</v>
       </c>
       <c r="H10" t="n">
-        <v>1.87055742611298</v>
+        <v>48729.7179856778</v>
       </c>
       <c r="I10" t="n">
-        <v>195847.362514029</v>
+        <v>194918.871942711</v>
       </c>
       <c r="J10" t="n">
-        <v>39169.4725028058</v>
+        <v>1740.87727108503</v>
       </c>
       <c r="K10" t="n">
-        <v>156677.890011223</v>
+        <v>81.5068050671626</v>
       </c>
       <c r="L10" t="n">
-        <v>1399.33591285232</v>
+        <v>1740.87727108503</v>
       </c>
       <c r="M10" t="n">
-        <v>65.5160483548893</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1399.33591285232</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1833.89065553137</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
+        <v>2281.49547978242</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1054,41 +979,35 @@
       <c r="D11" t="n">
         <v>10.34</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>32143</v>
+      <c r="E11" t="n">
+        <v>44.7982566666667</v>
       </c>
       <c r="F11" t="n">
-        <v>55.732</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>32143</v>
+        <v>2.23222972143931</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250511.980488526</v>
       </c>
       <c r="H11" t="n">
-        <v>1.79430129907414</v>
+        <v>50102.3960977053</v>
       </c>
       <c r="I11" t="n">
-        <v>201365.463288595</v>
+        <v>200409.584390821</v>
       </c>
       <c r="J11" t="n">
-        <v>40273.0926577191</v>
+        <v>1809.29517080156</v>
       </c>
       <c r="K11" t="n">
-        <v>161092.370630876</v>
+        <v>84.5355565187571</v>
       </c>
       <c r="L11" t="n">
-        <v>1454.33986663548</v>
+        <v>1809.29517080156</v>
       </c>
       <c r="M11" t="n">
-        <v>67.9510076506636</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1454.33986663548</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1881.67655310962</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
+        <v>2340.93032767358</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1104,41 +1023,35 @@
       <c r="D12" t="n">
         <v>10.32</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>32509</v>
+      <c r="E12" t="n">
+        <v>46.6574766666667</v>
       </c>
       <c r="F12" t="n">
-        <v>58.045</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>32509</v>
+        <v>2.14327921577128</v>
+      </c>
+      <c r="G12" t="n">
+        <v>258104.399559256</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72280127487294</v>
+        <v>51620.8799118512</v>
       </c>
       <c r="I12" t="n">
-        <v>207468.343526574</v>
+        <v>206483.519647405</v>
       </c>
       <c r="J12" t="n">
-        <v>41493.6687053148</v>
+        <v>1861.05496798403</v>
       </c>
       <c r="K12" t="n">
-        <v>165974.674821259</v>
+        <v>87.1632469386646</v>
       </c>
       <c r="L12" t="n">
-        <v>1495.94502100265</v>
+        <v>1861.05496798403</v>
       </c>
       <c r="M12" t="n">
-        <v>70.0631778832225</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1495.94502100265</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1943.37241724261</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
+        <v>2417.68436738965</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1154,41 +1067,35 @@
       <c r="D13" t="n">
         <v>10.13</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>32874</v>
+      <c r="E13" t="n">
+        <v>48.5481133333333</v>
       </c>
       <c r="F13" t="n">
-        <v>60.397</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>32874</v>
+        <v>2.05981227969449</v>
+      </c>
+      <c r="G13" t="n">
+        <v>251915.041806637</v>
       </c>
       <c r="H13" t="n">
-        <v>1.65571137639287</v>
+        <v>50383.0083613273</v>
       </c>
       <c r="I13" t="n">
-        <v>202493.501332848</v>
+        <v>201532.033445309</v>
       </c>
       <c r="J13" t="n">
-        <v>40498.7002665695</v>
+        <v>1787.97860318422</v>
       </c>
       <c r="K13" t="n">
-        <v>161994.801066278</v>
+        <v>85.3277146933016</v>
       </c>
       <c r="L13" t="n">
-        <v>1437.20694512911</v>
+        <v>1787.97860318422</v>
       </c>
       <c r="M13" t="n">
-        <v>68.5878365383171</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1437.20694512911</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1932.71974040471</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
+        <v>2404.42864091848</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1204,41 +1111,35 @@
       <c r="D14" t="n">
         <v>9.25</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>33239</v>
+      <c r="E14" t="n">
+        <v>50.2821383333333</v>
       </c>
       <c r="F14" t="n">
-        <v>62.555</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>33239</v>
+        <v>1.98877779097369</v>
+      </c>
+      <c r="G14" t="n">
+        <v>238603.615472068</v>
       </c>
       <c r="H14" t="n">
-        <v>1.5985932379506</v>
+        <v>47720.7230944136</v>
       </c>
       <c r="I14" t="n">
-        <v>191791.223723124</v>
+        <v>190882.892377654</v>
       </c>
       <c r="J14" t="n">
-        <v>38358.2447446247</v>
+        <v>1570.34664708273</v>
       </c>
       <c r="K14" t="n">
-        <v>153432.978978499</v>
+        <v>76.6382772318276</v>
       </c>
       <c r="L14" t="n">
-        <v>1262.25541267525</v>
+        <v>1570.34664708273</v>
       </c>
       <c r="M14" t="n">
-        <v>61.6023732299433</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1262.25541267525</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1872.013291031</v>
-      </c>
-      <c r="P14" t="s">
-        <v>28</v>
+        <v>2328.93419615794</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1254,41 +1155,35 @@
       <c r="D15" t="n">
         <v>8.39</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>33604</v>
+      <c r="E15" t="n">
+        <v>51.810455</v>
       </c>
       <c r="F15" t="n">
-        <v>64.456</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>33604</v>
+        <v>1.93011236824691</v>
+      </c>
+      <c r="G15" t="n">
+        <v>234267.388695969</v>
       </c>
       <c r="H15" t="n">
-        <v>1.55144594762318</v>
+        <v>46853.4777391938</v>
       </c>
       <c r="I15" t="n">
-        <v>188306.751892764</v>
+        <v>187413.910956775</v>
       </c>
       <c r="J15" t="n">
-        <v>37661.3503785528</v>
+        <v>1426.465974789</v>
       </c>
       <c r="K15" t="n">
-        <v>150645.401514211</v>
+        <v>68.9587467978934</v>
       </c>
       <c r="L15" t="n">
-        <v>1146.60933343423</v>
+        <v>1426.465974789</v>
       </c>
       <c r="M15" t="n">
-        <v>55.4298133273652</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1146.60933343423</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1820.63895720017</v>
-      </c>
-      <c r="P15" t="s">
-        <v>29</v>
+        <v>2265.00818464717</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -1304,41 +1199,35 @@
       <c r="D16" t="n">
         <v>7.31</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>33970</v>
+      <c r="E16" t="n">
+        <v>53.2175291666667</v>
       </c>
       <c r="F16" t="n">
-        <v>66.206</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>33970</v>
+        <v>1.87908009946911</v>
+      </c>
+      <c r="G16" t="n">
+        <v>237703.632582842</v>
       </c>
       <c r="H16" t="n">
-        <v>1.51043712050267</v>
+        <v>47540.7265165684</v>
       </c>
       <c r="I16" t="n">
-        <v>191070.295743588</v>
+        <v>190162.906066273</v>
       </c>
       <c r="J16" t="n">
-        <v>38214.0591487176</v>
+        <v>1304.99416729152</v>
       </c>
       <c r="K16" t="n">
-        <v>152856.236594871</v>
+        <v>62.3870073354639</v>
       </c>
       <c r="L16" t="n">
-        <v>1048.97690783564</v>
+        <v>1304.99416729152</v>
       </c>
       <c r="M16" t="n">
-        <v>50.1477567364906</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1048.97690783564</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1826.87466977493</v>
-      </c>
-      <c r="P16" t="s">
-        <v>30</v>
+        <v>2272.74859019342</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1354,41 +1243,35 @@
       <c r="D17" t="n">
         <v>8.38</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>34335</v>
+      <c r="E17" t="n">
+        <v>54.4084475</v>
       </c>
       <c r="F17" t="n">
-        <v>67.688</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>34335</v>
+        <v>1.8379498882044</v>
+      </c>
+      <c r="G17" t="n">
+        <v>239714.614169059</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47736674151991</v>
+        <v>47942.9228338118</v>
       </c>
       <c r="I17" t="n">
-        <v>192685.557262735</v>
+        <v>191771.691335247</v>
       </c>
       <c r="J17" t="n">
-        <v>38537.111452547</v>
+        <v>1458.28028525438</v>
       </c>
       <c r="K17" t="n">
-        <v>154148.445810188</v>
+        <v>70.1575613588053</v>
       </c>
       <c r="L17" t="n">
-        <v>1172.18364171711</v>
+        <v>1458.28028525438</v>
       </c>
       <c r="M17" t="n">
-        <v>56.3935113154264</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1172.18364171711</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1854.01242042544</v>
-      </c>
-      <c r="P17" t="s">
-        <v>31</v>
+        <v>2306.5240505853</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1404,41 +1287,35 @@
       <c r="D18" t="n">
         <v>7.93</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>34700</v>
+      <c r="E18" t="n">
+        <v>55.5938033333333</v>
       </c>
       <c r="F18" t="n">
-        <v>69.163</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>34700</v>
+        <v>1.79876162457195</v>
+      </c>
+      <c r="G18" t="n">
+        <v>240089.707839741</v>
       </c>
       <c r="H18" t="n">
-        <v>1.44585978051849</v>
+        <v>48017.9415679481</v>
       </c>
       <c r="I18" t="n">
-        <v>192986.134204705</v>
+        <v>192071.766271793</v>
       </c>
       <c r="J18" t="n">
-        <v>38597.226840941</v>
+        <v>1399.99309248936</v>
       </c>
       <c r="K18" t="n">
-        <v>154388.907363764</v>
+        <v>67.2108813160703</v>
       </c>
       <c r="L18" t="n">
-        <v>1125.32626768473</v>
+        <v>1399.99309248936</v>
       </c>
       <c r="M18" t="n">
-        <v>54.0246738537313</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1125.32626768473</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1852.97602270537</v>
-      </c>
-      <c r="P18" t="s">
-        <v>32</v>
+        <v>2305.24578233938</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1454,41 +1331,35 @@
       <c r="D19" t="n">
         <v>7.81</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>35065</v>
+      <c r="E19" t="n">
+        <v>56.6479375</v>
       </c>
       <c r="F19" t="n">
-        <v>70.474</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>35065</v>
+        <v>1.76528933643877</v>
+      </c>
+      <c r="G19" t="n">
+        <v>247581.829435538</v>
       </c>
       <c r="H19" t="n">
-        <v>1.41896302182365</v>
+        <v>49516.3658871075</v>
       </c>
       <c r="I19" t="n">
-        <v>199009.563810767</v>
+        <v>198065.46354843</v>
       </c>
       <c r="J19" t="n">
-        <v>39801.9127621534</v>
+        <v>1427.18622917117</v>
       </c>
       <c r="K19" t="n">
-        <v>159207.651048614</v>
+        <v>68.0995696830524</v>
       </c>
       <c r="L19" t="n">
-        <v>1147.19125224834</v>
+        <v>1427.18622917117</v>
       </c>
       <c r="M19" t="n">
-        <v>54.739338865148</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1147.19125224834</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1899.18671877821</v>
-      </c>
-      <c r="P19" t="s">
-        <v>33</v>
+        <v>2362.72123445227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1504,41 +1375,35 @@
       <c r="D20" t="n">
         <v>7.6</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>35431</v>
+      <c r="E20" t="n">
+        <v>57.6474791666667</v>
       </c>
       <c r="F20" t="n">
-        <v>71.718</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>35431</v>
+        <v>1.73468122883373</v>
+      </c>
+      <c r="G20" t="n">
+        <v>251528.77818089</v>
       </c>
       <c r="H20" t="n">
-        <v>1.39435009342146</v>
+        <v>50305.7556361781</v>
       </c>
       <c r="I20" t="n">
-        <v>202180.763546111</v>
+        <v>201223.022544712</v>
       </c>
       <c r="J20" t="n">
-        <v>40436.1527092222</v>
+        <v>1420.78492964394</v>
       </c>
       <c r="K20" t="n">
-        <v>161744.610836889</v>
+        <v>66.686864967766</v>
       </c>
       <c r="L20" t="n">
-        <v>1142.03783752981</v>
+        <v>1420.78492964394</v>
       </c>
       <c r="M20" t="n">
-        <v>53.6034141905742</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1142.03783752981</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1897.9369778448</v>
-      </c>
-      <c r="P20" t="s">
-        <v>34</v>
+        <v>2361.18293713318</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1554,41 +1419,35 @@
       <c r="D21" t="n">
         <v>6.94</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>35796</v>
+      <c r="E21" t="n">
+        <v>58.38069</v>
       </c>
       <c r="F21" t="n">
-        <v>72.63</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>35796</v>
+        <v>1.71289513707358</v>
+      </c>
+      <c r="G21" t="n">
+        <v>260231.593699903</v>
       </c>
       <c r="H21" t="n">
-        <v>1.37684152554041</v>
+        <v>52046.3187399806</v>
       </c>
       <c r="I21" t="n">
-        <v>209176.648767727</v>
+        <v>208185.274959923</v>
       </c>
       <c r="J21" t="n">
-        <v>41835.3297535454</v>
+        <v>1376.68301691129</v>
       </c>
       <c r="K21" t="n">
-        <v>167341.319014181</v>
+        <v>63.0398644526957</v>
       </c>
       <c r="L21" t="n">
-        <v>1106.59100149473</v>
+        <v>1376.68301691129</v>
       </c>
       <c r="M21" t="n">
-        <v>50.6720471465627</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1106.59100149473</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1915.68682449089</v>
-      </c>
-      <c r="P21" t="s">
-        <v>35</v>
+        <v>2383.2595000637</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1604,41 +1463,35 @@
       <c r="D22" t="n">
         <v>7.44</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>36161</v>
+      <c r="E22" t="n">
+        <v>59.1469933333333</v>
       </c>
       <c r="F22" t="n">
-        <v>73.583</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>36161</v>
+        <v>1.69070301572951</v>
+      </c>
+      <c r="G22" t="n">
+        <v>270723.820393688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.35900955383716</v>
+        <v>54144.7640787376</v>
       </c>
       <c r="I22" t="n">
-        <v>217611.404808176</v>
+        <v>216579.05631495</v>
       </c>
       <c r="J22" t="n">
-        <v>43522.2809616352</v>
+        <v>1505.46397939649</v>
       </c>
       <c r="K22" t="n">
-        <v>174089.123846541</v>
+        <v>66.8207545116018</v>
       </c>
       <c r="L22" t="n">
-        <v>1210.11195456746</v>
+        <v>1505.46397939649</v>
       </c>
       <c r="M22" t="n">
-        <v>53.7114105381137</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1210.11195456746</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1931.75771172434</v>
-      </c>
-      <c r="P22" t="s">
-        <v>36</v>
+        <v>2403.24181654901</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1654,41 +1507,35 @@
       <c r="D23" t="n">
         <v>8.05</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>36526</v>
+      <c r="E23" t="n">
+        <v>60.2036066666667</v>
       </c>
       <c r="F23" t="n">
-        <v>74.898</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>36526</v>
+        <v>1.6610300534597</v>
+      </c>
+      <c r="G23" t="n">
+        <v>278305.585457173</v>
       </c>
       <c r="H23" t="n">
-        <v>1.33514913615851</v>
+        <v>55661.1170914345</v>
       </c>
       <c r="I23" t="n">
-        <v>223704.237763358</v>
+        <v>222644.468365738</v>
       </c>
       <c r="J23" t="n">
-        <v>44740.8475526716</v>
+        <v>1641.45337777724</v>
       </c>
       <c r="K23" t="n">
-        <v>178963.390210687</v>
+        <v>71.4828762920786</v>
       </c>
       <c r="L23" t="n">
-        <v>1319.41324891683</v>
+        <v>1641.45337777724</v>
       </c>
       <c r="M23" t="n">
-        <v>57.4585031334654</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1319.41324891683</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1948.39799540404</v>
-      </c>
-      <c r="P23" t="s">
-        <v>37</v>
+        <v>2423.95964527106</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1704,41 +1551,35 @@
       <c r="D24" t="n">
         <v>6.97</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>36892</v>
+      <c r="E24" t="n">
+        <v>61.3449525</v>
       </c>
       <c r="F24" t="n">
-        <v>76.317</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>36892</v>
+        <v>1.63012596676149</v>
+      </c>
+      <c r="G24" t="n">
+        <v>282174.804846413</v>
       </c>
       <c r="H24" t="n">
-        <v>1.31032404313587</v>
+        <v>56434.9609692827</v>
       </c>
       <c r="I24" t="n">
-        <v>226817.091866819</v>
+        <v>225739.843877131</v>
       </c>
       <c r="J24" t="n">
-        <v>45363.4183733637</v>
+        <v>1497.30738671308</v>
       </c>
       <c r="K24" t="n">
-        <v>181453.673493455</v>
+        <v>63.6704492758585</v>
       </c>
       <c r="L24" t="n">
-        <v>1203.56212267008</v>
+        <v>1497.30738671308</v>
       </c>
       <c r="M24" t="n">
-        <v>51.1794316663548</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1203.56212267008</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1929.00219029927</v>
-      </c>
-      <c r="P24" t="s">
-        <v>38</v>
+        <v>2399.80070335974</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1754,41 +1595,35 @@
       <c r="D25" t="n">
         <v>6.54</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>37257</v>
+      <c r="E25" t="n">
+        <v>62.3703508333333</v>
       </c>
       <c r="F25" t="n">
-        <v>77.593</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>37257</v>
+        <v>1.60332591790643</v>
+      </c>
+      <c r="G25" t="n">
+        <v>298258.703878543</v>
       </c>
       <c r="H25" t="n">
-        <v>1.2887760493859</v>
+        <v>59651.7407757086</v>
       </c>
       <c r="I25" t="n">
-        <v>239744.564587012</v>
+        <v>238606.963102834</v>
       </c>
       <c r="J25" t="n">
-        <v>47948.9129174023</v>
+        <v>1514.44058352061</v>
       </c>
       <c r="K25" t="n">
-        <v>191795.651669609</v>
+        <v>63.6181142258768</v>
       </c>
       <c r="L25" t="n">
-        <v>1217.32876046059</v>
+        <v>1514.44058352061</v>
       </c>
       <c r="M25" t="n">
-        <v>51.1371399948837</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1217.32876046059</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2014.22191941967</v>
-      </c>
-      <c r="P25" t="s">
-        <v>39</v>
+        <v>2505.83040347438</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1804,41 +1639,35 @@
       <c r="D26" t="n">
         <v>5.83</v>
       </c>
-      <c r="E26" s="2" t="n">
-        <v>37622</v>
+      <c r="E26" t="n">
+        <v>63.3768591666667</v>
       </c>
       <c r="F26" t="n">
-        <v>78.845</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>37622</v>
+        <v>1.57786298208661</v>
+      </c>
+      <c r="G26" t="n">
+        <v>303146.925433391</v>
       </c>
       <c r="H26" t="n">
-        <v>1.26831124357917</v>
+        <v>60629.3850866781</v>
       </c>
       <c r="I26" t="n">
-        <v>243674.297672649</v>
+        <v>242517.540346713</v>
       </c>
       <c r="J26" t="n">
-        <v>48734.8595345298</v>
+        <v>1427.61552105503</v>
       </c>
       <c r="K26" t="n">
-        <v>194939.438138119</v>
+        <v>59.6273836373706</v>
       </c>
       <c r="L26" t="n">
-        <v>1147.5399558888</v>
+        <v>1427.61552105503</v>
       </c>
       <c r="M26" t="n">
-        <v>47.929434907254</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1147.5399558888</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2035.5145507463</v>
-      </c>
-      <c r="P26" t="s">
-        <v>40</v>
+        <v>2532.31458396415</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -1854,41 +1683,35 @@
       <c r="D27" t="n">
         <v>5.84</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>37987</v>
+      <c r="E27" t="n">
+        <v>64.6237741666667</v>
       </c>
       <c r="F27" t="n">
-        <v>80.397</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>37987</v>
+        <v>1.54741813348903</v>
+      </c>
+      <c r="G27" t="n">
+        <v>337569.265820632</v>
       </c>
       <c r="H27" t="n">
-        <v>1.24382750600147</v>
+        <v>67513.8531641264</v>
       </c>
       <c r="I27" t="n">
-        <v>271340.97043422</v>
+        <v>270055.412656506</v>
       </c>
       <c r="J27" t="n">
-        <v>54268.194086844</v>
+        <v>1591.44394533187</v>
       </c>
       <c r="K27" t="n">
-        <v>217072.776347376</v>
+        <v>67.45809088453</v>
       </c>
       <c r="L27" t="n">
-        <v>1279.21581802848</v>
+        <v>1591.44394533187</v>
       </c>
       <c r="M27" t="n">
-        <v>54.2233719048763</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1279.21581802848</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2300.31901506039</v>
-      </c>
-      <c r="P27" t="s">
-        <v>41</v>
+        <v>2861.77572013742</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1904,41 +1727,35 @@
       <c r="D28" t="n">
         <v>5.87</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>38353</v>
+      <c r="E28" t="n">
+        <v>66.0398275</v>
       </c>
       <c r="F28" t="n">
-        <v>82.158</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>38353</v>
+        <v>1.51423775296809</v>
+      </c>
+      <c r="G28" t="n">
+        <v>358192.940464601</v>
       </c>
       <c r="H28" t="n">
-        <v>1.21716692227172</v>
+        <v>71638.5880929201</v>
       </c>
       <c r="I28" t="n">
-        <v>287920.835463375</v>
+        <v>286554.352371681</v>
       </c>
       <c r="J28" t="n">
-        <v>57584.1670926751</v>
+        <v>1694.16161043529</v>
       </c>
       <c r="K28" t="n">
-        <v>230336.6683707</v>
+        <v>72.2787364649357</v>
       </c>
       <c r="L28" t="n">
-        <v>1361.79240622056</v>
+        <v>1694.16161043529</v>
       </c>
       <c r="M28" t="n">
-        <v>58.0987279152646</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1361.79240622056</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2456.7377823978</v>
-      </c>
-      <c r="P28" t="s">
-        <v>42</v>
+        <v>3056.34751584168</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -1954,41 +1771,35 @@
       <c r="D29" t="n">
         <v>6.41</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>38718</v>
+      <c r="E29" t="n">
+        <v>67.6214633333333</v>
       </c>
       <c r="F29" t="n">
-        <v>84.126</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>38718</v>
+        <v>1.47882040805683</v>
+      </c>
+      <c r="G29" t="n">
+        <v>360462.474463852</v>
       </c>
       <c r="H29" t="n">
-        <v>1.18869315075007</v>
+        <v>72092.4948927705</v>
       </c>
       <c r="I29" t="n">
-        <v>289743.955495328</v>
+        <v>288369.979571082</v>
       </c>
       <c r="J29" t="n">
-        <v>57948.7910990657</v>
+        <v>1805.65983192262</v>
       </c>
       <c r="K29" t="n">
-        <v>231795.164396263</v>
+        <v>76.2285400285386</v>
       </c>
       <c r="L29" t="n">
-        <v>1451.41050468141</v>
+        <v>1805.65983192262</v>
       </c>
       <c r="M29" t="n">
-        <v>61.2733925836645</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1451.41050468141</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2446.39198580226</v>
-      </c>
-      <c r="P29" t="s">
-        <v>43</v>
+        <v>3043.48888729462</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -2004,41 +1815,35 @@
       <c r="D30" t="n">
         <v>6.34</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>39083</v>
+      <c r="E30" t="n">
+        <v>69.1289483333333</v>
       </c>
       <c r="F30" t="n">
-        <v>86.001</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>39083</v>
+        <v>1.44657198483346</v>
+      </c>
+      <c r="G30" t="n">
+        <v>354337.807684957</v>
       </c>
       <c r="H30" t="n">
-        <v>1.16277717700957</v>
+        <v>70867.5615369914</v>
       </c>
       <c r="I30" t="n">
-        <v>284822.269508494</v>
+        <v>283470.246147966</v>
       </c>
       <c r="J30" t="n">
-        <v>56964.4539016988</v>
+        <v>1762.00155041769</v>
       </c>
       <c r="K30" t="n">
-        <v>227857.815606795</v>
+        <v>74.160407359828</v>
       </c>
       <c r="L30" t="n">
-        <v>1416.32439322889</v>
+        <v>1762.00155041769</v>
       </c>
       <c r="M30" t="n">
-        <v>59.6112948542052</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1416.32439322889</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2397.56151484582</v>
-      </c>
-      <c r="P30" t="s">
-        <v>44</v>
+        <v>2982.72565704332</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -2054,41 +1859,35 @@
       <c r="D31" t="n">
         <v>6.03</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>39448</v>
+      <c r="E31" t="n">
+        <v>70.4844458333333</v>
       </c>
       <c r="F31" t="n">
-        <v>87.688</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>39448</v>
+        <v>1.41875273072954</v>
+      </c>
+      <c r="G31" t="n">
+        <v>325674.689338966</v>
       </c>
       <c r="H31" t="n">
-        <v>1.14040689718091</v>
+        <v>65134.9378677932</v>
       </c>
       <c r="I31" t="n">
-        <v>261780.403247879</v>
+        <v>260539.751471173</v>
       </c>
       <c r="J31" t="n">
-        <v>52356.0806495758</v>
+        <v>1567.09616977884</v>
       </c>
       <c r="K31" t="n">
-        <v>209424.322598303</v>
+        <v>65.6704434133405</v>
       </c>
       <c r="L31" t="n">
-        <v>1259.64676004015</v>
+        <v>1567.09616977884</v>
       </c>
       <c r="M31" t="n">
-        <v>52.786525084602</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1259.64676004015</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2194.02427109977</v>
-      </c>
-      <c r="P31" t="s">
-        <v>45</v>
+        <v>2729.53270767169</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -2104,41 +1903,35 @@
       <c r="D32" t="n">
         <v>5.04</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>39814</v>
+      <c r="E32" t="n">
+        <v>71.1395516666667</v>
       </c>
       <c r="F32" t="n">
-        <v>88.503</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>39814</v>
+        <v>1.40568780175285</v>
+      </c>
+      <c r="G32" t="n">
+        <v>303136.574448002</v>
       </c>
       <c r="H32" t="n">
-        <v>1.12990520095364</v>
+        <v>60627.3148896005</v>
       </c>
       <c r="I32" t="n">
-        <v>243664.056585652</v>
+        <v>242509.259558402</v>
       </c>
       <c r="J32" t="n">
-        <v>48732.8113171305</v>
+        <v>1307.77703978155</v>
       </c>
       <c r="K32" t="n">
-        <v>194931.245268522</v>
+        <v>53.9188164904362</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.20360089511</v>
+        <v>1307.77703978155</v>
       </c>
       <c r="M32" t="n">
-        <v>43.3404566119443</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1051.20360089511</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2009.22284956946</v>
-      </c>
-      <c r="P32" t="s">
-        <v>46</v>
+        <v>2499.62567502048</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -2154,41 +1947,35 @@
       <c r="D33" t="n">
         <v>4.69</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>40179</v>
+      <c r="E33" t="n">
+        <v>72.1704441666667</v>
       </c>
       <c r="F33" t="n">
-        <v>89.785</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>40179</v>
+        <v>1.38560876484375</v>
+      </c>
+      <c r="G33" t="n">
+        <v>308575.071930704</v>
       </c>
       <c r="H33" t="n">
-        <v>1.11377178816061</v>
+        <v>61715.0143861407</v>
       </c>
       <c r="I33" t="n">
-        <v>248036.977223367</v>
+        <v>246860.057544563</v>
       </c>
       <c r="J33" t="n">
-        <v>49607.3954446734</v>
+        <v>1278.82625367462</v>
       </c>
       <c r="K33" t="n">
-        <v>198429.581778694</v>
+        <v>53.6154627179918</v>
       </c>
       <c r="L33" t="n">
-        <v>1027.93850576033</v>
+        <v>1278.82625367462</v>
       </c>
       <c r="M33" t="n">
-        <v>43.0968620433127</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1027.93850576033</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2079.81612307226</v>
-      </c>
-      <c r="P33" t="s">
-        <v>47</v>
+        <v>2587.43440983686</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -2204,41 +1991,35 @@
       <c r="D34" t="n">
         <v>4.45</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>40544</v>
+      <c r="E34" t="n">
+        <v>73.3152741666667</v>
       </c>
       <c r="F34" t="n">
-        <v>91.209</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>40544</v>
+        <v>1.36397225730441</v>
+      </c>
+      <c r="G34" t="n">
+        <v>306757.360667762</v>
       </c>
       <c r="H34" t="n">
-        <v>1.09638303237619</v>
+        <v>61351.4721335523</v>
       </c>
       <c r="I34" t="n">
-        <v>246576.543981405</v>
+        <v>245405.888534209</v>
       </c>
       <c r="J34" t="n">
-        <v>49315.3087962811</v>
+        <v>1236.15550005287</v>
       </c>
       <c r="K34" t="n">
-        <v>197261.235185124</v>
+        <v>52.6366618087355</v>
       </c>
       <c r="L34" t="n">
-        <v>993.641848929478</v>
+        <v>1236.15550005287</v>
       </c>
       <c r="M34" t="n">
-        <v>42.3102028497797</v>
-      </c>
-      <c r="N34" t="n">
-        <v>993.641848929478</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2099.89215029355</v>
-      </c>
-      <c r="P34" t="s">
-        <v>48</v>
+        <v>2612.40328585178</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -2254,41 +2035,35 @@
       <c r="D35" t="n">
         <v>3.66</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>40909</v>
+      <c r="E35" t="n">
+        <v>74.671575</v>
       </c>
       <c r="F35" t="n">
-        <v>92.897</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>40909</v>
+        <v>1.33919767997394</v>
+      </c>
+      <c r="G35" t="n">
+        <v>327299.912985631</v>
       </c>
       <c r="H35" t="n">
-        <v>1.07646102672853</v>
+        <v>65459.9825971262</v>
       </c>
       <c r="I35" t="n">
-        <v>263087.074932452</v>
+        <v>261839.930388505</v>
       </c>
       <c r="J35" t="n">
-        <v>52617.4149864904</v>
+        <v>1199.2884385497</v>
       </c>
       <c r="K35" t="n">
-        <v>210469.659945962</v>
+        <v>51.1431826632869</v>
       </c>
       <c r="L35" t="n">
-        <v>964.000523007164</v>
+        <v>1199.2884385497</v>
       </c>
       <c r="M35" t="n">
-        <v>41.1094222631551</v>
-      </c>
-      <c r="N35" t="n">
-        <v>964.000523007164</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2243.84891859569</v>
-      </c>
-      <c r="P35" t="s">
-        <v>49</v>
+        <v>2791.51515139173</v>
+      </c>
+      <c r="N35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -2304,41 +2079,35 @@
       <c r="D36" t="n">
         <v>3.98</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>41275</v>
+      <c r="E36" t="n">
+        <v>75.7874691666667</v>
       </c>
       <c r="F36" t="n">
-        <v>94.285</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>41275</v>
+        <v>1.31947934268773</v>
+      </c>
+      <c r="G36" t="n">
+        <v>351278.388007041</v>
       </c>
       <c r="H36" t="n">
-        <v>1.06061409556133</v>
+        <v>70255.6776014082</v>
       </c>
       <c r="I36" t="n">
-        <v>282361.987590815</v>
+        <v>281022.710405633</v>
       </c>
       <c r="J36" t="n">
-        <v>56472.397518163</v>
+        <v>1338.40716401646</v>
       </c>
       <c r="K36" t="n">
-        <v>225889.590072652</v>
+        <v>56.9858452014208</v>
       </c>
       <c r="L36" t="n">
-        <v>1075.82851646967</v>
+        <v>1338.40716401646</v>
       </c>
       <c r="M36" t="n">
-        <v>45.8059392919247</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1075.82851646967</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2404.44566470026</v>
-      </c>
-      <c r="P36" t="s">
-        <v>50</v>
+        <v>2991.30135877362</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -2354,41 +2123,35 @@
       <c r="D37" t="n">
         <v>4.17</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>41640</v>
+      <c r="E37" t="n">
+        <v>76.9225225</v>
       </c>
       <c r="F37" t="n">
-        <v>95.697</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>41640</v>
+        <v>1.30000936981753</v>
+      </c>
+      <c r="G37" t="n">
+        <v>371510.177659606</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04496483693324</v>
+        <v>74302.0355319211</v>
       </c>
       <c r="I37" t="n">
-        <v>298624.826274596</v>
+        <v>297208.142127684</v>
       </c>
       <c r="J37" t="n">
-        <v>59724.9652549192</v>
+        <v>1448.19956688664</v>
       </c>
       <c r="K37" t="n">
-        <v>238899.861019677</v>
+        <v>61.8652646869805</v>
       </c>
       <c r="L37" t="n">
-        <v>1164.0820900167</v>
+        <v>1448.19956688664</v>
       </c>
       <c r="M37" t="n">
-        <v>49.728123293862</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1164.0820900167</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2551.3754239408</v>
-      </c>
-      <c r="P37" t="s">
-        <v>51</v>
+        <v>3174.08953853357</v>
+      </c>
+      <c r="N37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38">
@@ -2404,41 +2167,35 @@
       <c r="D38" t="n">
         <v>3.85</v>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>42005</v>
+      <c r="E38" t="n">
+        <v>77.8687441666667</v>
       </c>
       <c r="F38" t="n">
-        <v>96.874</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>42005</v>
+        <v>1.28421231227211</v>
+      </c>
+      <c r="G38" t="n">
+        <v>377751.05165484</v>
       </c>
       <c r="H38" t="n">
-        <v>1.03226872019324</v>
+        <v>75550.210330968</v>
       </c>
       <c r="I38" t="n">
-        <v>303641.844044842</v>
+        <v>302200.841323872</v>
       </c>
       <c r="J38" t="n">
-        <v>60728.3688089684</v>
+        <v>1416.74242202541</v>
       </c>
       <c r="K38" t="n">
-        <v>242913.475235873</v>
+        <v>59.150116330187</v>
       </c>
       <c r="L38" t="n">
-        <v>1138.7983691265</v>
+        <v>1416.74242202541</v>
       </c>
       <c r="M38" t="n">
-        <v>47.5457323527872</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1138.7983691265</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2535.45741536957</v>
-      </c>
-      <c r="P38" t="s">
-        <v>52</v>
+        <v>3154.28101846356</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -2454,41 +2211,35 @@
       <c r="D39" t="n">
         <v>3.65</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>42370</v>
+      <c r="E39" t="n">
+        <v>79.1165283333333</v>
       </c>
       <c r="F39" t="n">
-        <v>98.427</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>42370</v>
+        <v>1.2639583928491</v>
+      </c>
+      <c r="G39" t="n">
+        <v>385665.30461808</v>
       </c>
       <c r="H39" t="n">
-        <v>1.01598138722099</v>
+        <v>77133.0609236161</v>
       </c>
       <c r="I39" t="n">
-        <v>310001.320775803</v>
+        <v>308532.243694464</v>
       </c>
       <c r="J39" t="n">
-        <v>62000.2641551607</v>
+        <v>1411.41024714297</v>
       </c>
       <c r="K39" t="n">
-        <v>248001.056620643</v>
+        <v>57.8384784162505</v>
       </c>
       <c r="L39" t="n">
-        <v>1134.50454456647</v>
+        <v>1411.41024714297</v>
       </c>
       <c r="M39" t="n">
-        <v>46.4911011854081</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1134.50454456647</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2540.72191086822</v>
-      </c>
-      <c r="P39" t="s">
-        <v>53</v>
+        <v>3160.85198363873</v>
+      </c>
+      <c r="N39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40">
@@ -2504,41 +2255,35 @@
       <c r="D40" t="n">
         <v>3.99</v>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>42736</v>
+      <c r="E40" t="n">
+        <v>80.3813275</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>42736</v>
+        <v>1.24407002360094</v>
+      </c>
+      <c r="G40" t="n">
+        <v>401119.277359534</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>80223.8554719067</v>
       </c>
       <c r="I40" t="n">
-        <v>322425</v>
+        <v>320895.421887627</v>
       </c>
       <c r="J40" t="n">
-        <v>64485</v>
+        <v>1530.15440151069</v>
       </c>
       <c r="K40" t="n">
-        <v>257940</v>
+        <v>61.8885954197834</v>
       </c>
       <c r="L40" t="n">
-        <v>1229.95842073397</v>
+        <v>1530.15440151069</v>
       </c>
       <c r="M40" t="n">
-        <v>49.7468745695261</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1229.95842073397</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2608.15906663054</v>
-      </c>
-      <c r="P40" t="s">
-        <v>54</v>
+        <v>3244.73251157807</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41">
@@ -2554,41 +2299,35 @@
       <c r="D41" t="n">
         <v>4.54</v>
       </c>
-      <c r="E41" s="2" t="n">
-        <v>43101</v>
+      <c r="E41" t="n">
+        <v>81.9060308333333</v>
       </c>
       <c r="F41" t="n">
-        <v>101.897</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>43101</v>
+        <v>1.22091131730562</v>
+      </c>
+      <c r="G41" t="n">
+        <v>397131.928736587</v>
       </c>
       <c r="H41" t="n">
-        <v>0.981383161427716</v>
+        <v>79426.3857473173</v>
       </c>
       <c r="I41" t="n">
-        <v>319219.4078334</v>
+        <v>317705.542989269</v>
       </c>
       <c r="J41" t="n">
-        <v>63843.8815666801</v>
+        <v>1617.32705366378</v>
       </c>
       <c r="K41" t="n">
-        <v>255375.52626672</v>
+        <v>65.5284712127937</v>
       </c>
       <c r="L41" t="n">
-        <v>1300.02688523676</v>
+        <v>1617.32705366378</v>
       </c>
       <c r="M41" t="n">
-        <v>52.6725711612342</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1300.02688523676</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2586.73219240226</v>
-      </c>
-      <c r="P41" t="s">
-        <v>55</v>
+        <v>3218.08110498676</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42">
@@ -2604,41 +2343,35 @@
       <c r="D42" t="n">
         <v>3.94</v>
       </c>
-      <c r="E42" s="2" t="n">
-        <v>43466</v>
+      <c r="E42" t="n">
+        <v>83.25342</v>
       </c>
       <c r="F42" t="n">
-        <v>103.573</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>43466</v>
+        <v>1.20115185658439</v>
+      </c>
+      <c r="G42" t="n">
+        <v>384668.882071151</v>
       </c>
       <c r="H42" t="n">
-        <v>0.965502592374461</v>
+        <v>76933.7764142302</v>
       </c>
       <c r="I42" t="n">
-        <v>309202.205207921</v>
+        <v>307735.105656921</v>
       </c>
       <c r="J42" t="n">
-        <v>61840.4410415842</v>
+        <v>1458.549635062</v>
       </c>
       <c r="K42" t="n">
-        <v>247361.764166337</v>
+        <v>57.743602391115</v>
       </c>
       <c r="L42" t="n">
-        <v>1172.40251183864</v>
+        <v>1458.549635062</v>
       </c>
       <c r="M42" t="n">
-        <v>46.4151118745281</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1172.40251183864</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2448.24704854466</v>
-      </c>
-      <c r="P42" t="s">
-        <v>56</v>
+        <v>3045.7882878435</v>
+      </c>
+      <c r="N42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43">
@@ -2654,41 +2387,35 @@
       <c r="D43" t="n">
         <v>3.11</v>
       </c>
-      <c r="E43" s="2" t="n">
-        <v>43831</v>
+      <c r="E43" t="n">
+        <v>84.3606725</v>
       </c>
       <c r="F43" t="n">
-        <v>104.951</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>43831</v>
+        <v>1.18538647258887</v>
+      </c>
+      <c r="G43" t="n">
+        <v>388984.570980038</v>
       </c>
       <c r="H43" t="n">
-        <v>0.95282560432964</v>
+        <v>77796.9141960076</v>
       </c>
       <c r="I43" t="n">
-        <v>312669.722060771</v>
+        <v>311187.65678403</v>
       </c>
       <c r="J43" t="n">
-        <v>62533.9444121543</v>
+        <v>1330.51311915232</v>
       </c>
       <c r="K43" t="n">
-        <v>250135.777648617</v>
+        <v>48.7171423866523</v>
       </c>
       <c r="L43" t="n">
-        <v>1069.47986681178</v>
+        <v>1330.51311915232</v>
       </c>
       <c r="M43" t="n">
-        <v>39.1593304877156</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1069.47986681178</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2289.69938745651</v>
-      </c>
-      <c r="P43" t="s">
-        <v>57</v>
+        <v>2848.55766664197</v>
+      </c>
+      <c r="N43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -2704,41 +2431,35 @@
       <c r="D44" t="n">
         <v>2.96</v>
       </c>
-      <c r="E44" s="2" t="n">
-        <v>44197</v>
+      <c r="E44" t="n">
+        <v>87.3781883333333</v>
       </c>
       <c r="F44" t="n">
-        <v>108.705</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>44197</v>
+        <v>1.14445037036608</v>
+      </c>
+      <c r="G44" t="n">
+        <v>438324.491850207</v>
       </c>
       <c r="H44" t="n">
-        <v>0.919920886803735</v>
+        <v>87664.8983700414</v>
       </c>
       <c r="I44" t="n">
-        <v>352329.69964583</v>
+        <v>350659.593480165</v>
       </c>
       <c r="J44" t="n">
-        <v>70465.9399291661</v>
+        <v>1470.84097509908</v>
       </c>
       <c r="K44" t="n">
-        <v>281863.759716664</v>
+        <v>54.9047694943841</v>
       </c>
       <c r="L44" t="n">
-        <v>1182.27698570067</v>
+        <v>1470.84097509908</v>
       </c>
       <c r="M44" t="n">
-        <v>44.1330140221567</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1182.27698570067</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2630.41093803859</v>
-      </c>
-      <c r="P44" t="s">
-        <v>58</v>
+        <v>3272.42789617789</v>
+      </c>
+      <c r="N44" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45">
@@ -2754,41 +2475,35 @@
       <c r="D45" t="n">
         <v>5.34</v>
       </c>
-      <c r="E45" s="2" t="n">
-        <v>44562</v>
+      <c r="E45" t="n">
+        <v>92.053635</v>
       </c>
       <c r="F45" t="n">
-        <v>114.521</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>44562</v>
+        <v>1.08632320711724</v>
+      </c>
+      <c r="G45" t="n">
+        <v>470323.63252141</v>
       </c>
       <c r="H45" t="n">
-        <v>0.873202294775631</v>
+        <v>94064.726504282</v>
       </c>
       <c r="I45" t="n">
-        <v>378052.933523109</v>
+        <v>376258.906017128</v>
       </c>
       <c r="J45" t="n">
-        <v>75610.5867046219</v>
+        <v>2098.73921997023</v>
       </c>
       <c r="K45" t="n">
-        <v>302442.346818487</v>
+        <v>79.0158832191443</v>
       </c>
       <c r="L45" t="n">
-        <v>1686.99691860291</v>
+        <v>2098.73921997023</v>
       </c>
       <c r="M45" t="n">
-        <v>63.5141089674185</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1686.99691860291</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2846.67920260629</v>
-      </c>
-      <c r="P45" t="s">
-        <v>59</v>
+        <v>3541.46307162856</v>
+      </c>
+      <c r="N45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46">
@@ -2804,41 +2519,35 @@
       <c r="D46" t="n">
         <v>6.81</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>44927</v>
+      <c r="E46" t="n">
+        <v>95.8689358333333</v>
       </c>
       <c r="F46" t="n">
-        <v>119.268</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>44927</v>
+        <v>1.04309074812146</v>
+      </c>
+      <c r="G46" t="n">
+        <v>444904.281342506</v>
       </c>
       <c r="H46" t="n">
-        <v>0.838447865311735</v>
+        <v>88980.8562685012</v>
       </c>
       <c r="I46" t="n">
-        <v>357618.975752088</v>
+        <v>355923.425074005</v>
       </c>
       <c r="J46" t="n">
-        <v>71523.7951504175</v>
+        <v>2322.72580419692</v>
       </c>
       <c r="K46" t="n">
-        <v>286095.18060167</v>
+        <v>86.6519637692178</v>
       </c>
       <c r="L46" t="n">
-        <v>1867.03265822335</v>
+        <v>2322.72580419692</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6518056345664</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1867.03265822335</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2668.27763088195</v>
-      </c>
-      <c r="P46" t="s">
-        <v>60</v>
+        <v>3319.53342043229</v>
+      </c>
+      <c r="N46" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -2854,41 +2563,35 @@
       <c r="D47" t="n">
         <v>6.72</v>
       </c>
-      <c r="E47" s="2" t="n">
-        <v>45292</v>
+      <c r="E47" t="n">
+        <v>98.563385</v>
       </c>
       <c r="F47" t="n">
-        <v>122.62</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>45292</v>
+        <v>1.01457554445802</v>
+      </c>
+      <c r="G47" t="n">
+        <v>425081.788739297</v>
       </c>
       <c r="H47" t="n">
-        <v>0.815527646387213</v>
+        <v>85016.3577478594</v>
       </c>
       <c r="I47" t="n">
-        <v>341685.695645082</v>
+        <v>340065.430991438</v>
       </c>
       <c r="J47" t="n">
-        <v>68337.1391290165</v>
+        <v>2198.88071311692</v>
       </c>
       <c r="K47" t="n">
-        <v>273348.556516066</v>
+        <v>79.9049198045658</v>
       </c>
       <c r="L47" t="n">
-        <v>1767.48594271748</v>
+        <v>2198.88071311692</v>
       </c>
       <c r="M47" t="n">
-        <v>64.2285057420612</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1767.48594271748</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2483.2968833663</v>
-      </c>
-      <c r="P47" t="s">
-        <v>61</v>
+        <v>3089.40144292301</v>
+      </c>
+      <c r="N47" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48">
@@ -2904,17 +2607,17 @@
       <c r="D48" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>45658</v>
+      <c r="E48" t="n">
+        <v>100.665425</v>
       </c>
       <c r="F48" t="n">
-        <v>125.2348</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.798500097417012</v>
+        <v>0.993389736346914</v>
+      </c>
+      <c r="G48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="I48" t="e">
         <v>#NUM!</v>
@@ -2931,14 +2634,8 @@
       <c r="M48" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="N48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O48" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P48" t="s">
-        <v>62</v>
+      <c r="N48" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
